--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>64.01557046448333</v>
+        <v>52.95971004654934</v>
       </c>
       <c r="R2">
-        <v>576.1401341803501</v>
+        <v>476.637390418944</v>
       </c>
       <c r="S2">
-        <v>0.002101329969981627</v>
+        <v>0.002389514759602735</v>
       </c>
       <c r="T2">
-        <v>0.002101329969981627</v>
+        <v>0.002389514759602735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>8266.826657893904</v>
+        <v>4680.59522817775</v>
       </c>
       <c r="R3">
-        <v>74401.43992104514</v>
+        <v>42125.35705359974</v>
       </c>
       <c r="S3">
-        <v>0.2713610218081764</v>
+        <v>0.2111860388137755</v>
       </c>
       <c r="T3">
-        <v>0.2713610218081763</v>
+        <v>0.2111860388137755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>3274.628795031319</v>
+        <v>1976.879085588594</v>
       </c>
       <c r="R4">
-        <v>29471.65915528187</v>
+        <v>17791.91177029735</v>
       </c>
       <c r="S4">
-        <v>0.1074906554395519</v>
+        <v>0.08919576313412404</v>
       </c>
       <c r="T4">
-        <v>0.1074906554395519</v>
+        <v>0.08919576313412404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.8972919628206668</v>
+        <v>8.146129085781332</v>
       </c>
       <c r="R5">
-        <v>8.075627665386001</v>
+        <v>73.315161772032</v>
       </c>
       <c r="S5">
-        <v>2.94538731689474E-05</v>
+        <v>0.0003675491362583832</v>
       </c>
       <c r="T5">
-        <v>2.945387316894739E-05</v>
+        <v>0.0003675491362583833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>12.27177709882778</v>
+        <v>17.93102775152467</v>
       </c>
       <c r="R6">
-        <v>110.44599388945</v>
+        <v>161.379249763722</v>
       </c>
       <c r="S6">
-        <v>0.0004028247005470018</v>
+        <v>0.0008090387094161623</v>
       </c>
       <c r="T6">
-        <v>0.0004028247005470017</v>
+        <v>0.0008090387094161624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>1584.749668310875</v>
@@ -883,10 +883,10 @@
         <v>14262.74701479787</v>
       </c>
       <c r="S7">
-        <v>0.05201987498943959</v>
+        <v>0.07150308639106885</v>
       </c>
       <c r="T7">
-        <v>0.05201987498943957</v>
+        <v>0.07150308639106885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>627.7459430955596</v>
+        <v>669.3290751392136</v>
       </c>
       <c r="R8">
-        <v>5649.713487860036</v>
+        <v>6023.961676252922</v>
       </c>
       <c r="S8">
-        <v>0.02060594561901053</v>
+        <v>0.03019978211116751</v>
       </c>
       <c r="T8">
-        <v>0.02060594561901053</v>
+        <v>0.03019978211116751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.1720107605135556</v>
+        <v>2.758105483890666</v>
       </c>
       <c r="R9">
-        <v>1.548096844622</v>
+        <v>24.822949355016</v>
       </c>
       <c r="S9">
-        <v>5.646303916435526E-06</v>
+        <v>0.0001244442946629653</v>
       </c>
       <c r="T9">
-        <v>5.646303916435524E-06</v>
+        <v>0.0001244442946629654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>10.05365188165834</v>
+        <v>12.19346831594033</v>
       </c>
       <c r="R10">
-        <v>90.48286693492501</v>
+        <v>109.741214843463</v>
       </c>
       <c r="S10">
-        <v>0.0003300140864699759</v>
+        <v>0.0005501629915661926</v>
       </c>
       <c r="T10">
-        <v>0.0003300140864699759</v>
+        <v>0.0005501629915661927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>1298.305971210392</v>
+        <v>1077.662426103965</v>
       </c>
       <c r="R11">
-        <v>11684.75374089353</v>
+        <v>9698.961834935688</v>
       </c>
       <c r="S11">
-        <v>0.04261727619882923</v>
+        <v>0.04862357197162374</v>
       </c>
       <c r="T11">
-        <v>0.04261727619882922</v>
+        <v>0.04862357197162375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>514.2807868152128</v>
+        <v>455.1575617272514</v>
       </c>
       <c r="R12">
-        <v>4628.527081336915</v>
+        <v>4096.418055545263</v>
       </c>
       <c r="S12">
-        <v>0.01688141841866598</v>
+        <v>0.02053647406181229</v>
       </c>
       <c r="T12">
-        <v>0.01688141841866598</v>
+        <v>0.02053647406181229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.1409197944336667</v>
+        <v>1.875568556129333</v>
       </c>
       <c r="R13">
-        <v>1.268278149903</v>
+        <v>16.880117005164</v>
       </c>
       <c r="S13">
-        <v>4.625733790365964E-06</v>
+        <v>8.462468437947657E-05</v>
       </c>
       <c r="T13">
-        <v>4.625733790365964E-06</v>
+        <v>8.462468437947659E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>81.68660550352499</v>
+        <v>91.62024789633034</v>
       </c>
       <c r="R14">
-        <v>735.1794495317249</v>
+        <v>824.582231066973</v>
       </c>
       <c r="S14">
-        <v>0.002681386903922963</v>
+        <v>0.004133858256291706</v>
       </c>
       <c r="T14">
-        <v>0.002681386903922962</v>
+        <v>0.004133858256291706</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>10548.82434179138</v>
+        <v>8097.425282938606</v>
       </c>
       <c r="R15">
-        <v>94939.41907612245</v>
+        <v>72876.82754644744</v>
       </c>
       <c r="S15">
-        <v>0.3462682684328532</v>
+        <v>0.3653516458333189</v>
       </c>
       <c r="T15">
-        <v>0.3462682684328531</v>
+        <v>0.3653516458333189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>4178.566380168641</v>
+        <v>3419.998933594975</v>
       </c>
       <c r="R16">
-        <v>37607.09742151778</v>
+        <v>30779.99040235478</v>
       </c>
       <c r="S16">
-        <v>0.1371626731199337</v>
+        <v>0.1543085851955731</v>
       </c>
       <c r="T16">
-        <v>0.1371626731199337</v>
+        <v>0.1543085851955731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>1.144982916759</v>
+        <v>14.09279555304933</v>
       </c>
       <c r="R17">
-        <v>10.304846250831</v>
+        <v>126.835159977444</v>
       </c>
       <c r="S17">
-        <v>3.758440174234702E-05</v>
+        <v>0.0006358596553583153</v>
       </c>
       <c r="T17">
-        <v>3.758440174234701E-05</v>
+        <v>0.0006358596553583154</v>
       </c>
     </row>
   </sheetData>
